--- a/Code/Results/Cases/Case_3_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_75/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8551049485604096</v>
+        <v>0.2964644314608904</v>
       </c>
       <c r="C2">
-        <v>0.1189790976938099</v>
+        <v>0.05204127957692606</v>
       </c>
       <c r="D2">
-        <v>0.2571168191299904</v>
+        <v>0.3057664949759413</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6430375233057219</v>
+        <v>1.286094136379496</v>
       </c>
       <c r="G2">
-        <v>0.3296211473713413</v>
+        <v>0.6339111078817652</v>
       </c>
       <c r="H2">
-        <v>0.3048735622496395</v>
+        <v>0.7629503473669246</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2004126146062717</v>
+        <v>0.3173351099104806</v>
       </c>
       <c r="K2">
-        <v>0.8784676340200406</v>
+        <v>0.2717952620865276</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4047211055190232</v>
+        <v>0.2516613191299228</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.284629357766221</v>
+        <v>2.781774390993235</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7452344317446773</v>
+        <v>0.2625494012835929</v>
       </c>
       <c r="C3">
-        <v>0.1099188380028551</v>
+        <v>0.04888545475904493</v>
       </c>
       <c r="D3">
-        <v>0.2305297812250586</v>
+        <v>0.2999429382849428</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6283982348207147</v>
+        <v>1.291720718292183</v>
       </c>
       <c r="G3">
-        <v>0.3272872234244204</v>
+        <v>0.6387555901064914</v>
       </c>
       <c r="H3">
-        <v>0.309712812545385</v>
+        <v>0.7689265224063533</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1871104139458879</v>
+        <v>0.3160395519624686</v>
       </c>
       <c r="K3">
-        <v>0.7703954093167056</v>
+        <v>0.2373991465323257</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3530175742886001</v>
+        <v>0.2375135800254284</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.289456423740305</v>
+        <v>2.804307867632033</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6777756213461146</v>
+        <v>0.2417079151751977</v>
       </c>
       <c r="C4">
-        <v>0.1043591218626219</v>
+        <v>0.04694026051144817</v>
       </c>
       <c r="D4">
-        <v>0.214390758935906</v>
+        <v>0.2964919325168012</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6206072451801319</v>
+        <v>1.295844628252006</v>
       </c>
       <c r="G4">
-        <v>0.3266661056051205</v>
+        <v>0.6421300859656895</v>
       </c>
       <c r="H4">
-        <v>0.3131919299748276</v>
+        <v>0.7729054917629057</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1792411424778777</v>
+        <v>0.31540878542706</v>
       </c>
       <c r="K4">
-        <v>0.7039742109203644</v>
+        <v>0.2162145717714168</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3214132382199537</v>
+        <v>0.2289072308901936</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.295195733929958</v>
+        <v>2.819630914032317</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6502786782349119</v>
+        <v>0.2332109866188148</v>
       </c>
       <c r="C5">
-        <v>0.1020938506388234</v>
+        <v>0.04614575421661016</v>
       </c>
       <c r="D5">
-        <v>0.2078573973567757</v>
+        <v>0.295117115070255</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6177214319621029</v>
+        <v>1.29769352697334</v>
       </c>
       <c r="G5">
-        <v>0.3266085665017044</v>
+        <v>0.6436057574119971</v>
       </c>
       <c r="H5">
-        <v>0.3147336528107587</v>
+        <v>0.7746048606151845</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1761053648633464</v>
+        <v>0.3151931961716485</v>
       </c>
       <c r="K5">
-        <v>0.6768841476697816</v>
+        <v>0.2075658426622766</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3085648661766243</v>
+        <v>0.2254205263047027</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.29820641131397</v>
+        <v>2.826249243200451</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6457122032381903</v>
+        <v>0.231799861621937</v>
       </c>
       <c r="C6">
-        <v>0.1017177124478863</v>
+        <v>0.04601371876749027</v>
       </c>
       <c r="D6">
-        <v>0.2067750686167074</v>
+        <v>0.2948907341396421</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6172593616935771</v>
+        <v>1.298010707525059</v>
       </c>
       <c r="G6">
-        <v>0.3266105800337797</v>
+        <v>0.6438568626223216</v>
       </c>
       <c r="H6">
-        <v>0.3149970351309577</v>
+        <v>0.7748917466975982</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1755888468937457</v>
+        <v>0.3151599024507519</v>
       </c>
       <c r="K6">
-        <v>0.6723842934295163</v>
+        <v>0.2061287873534354</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3064331133713267</v>
+        <v>0.224842803733722</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.298746170542458</v>
+        <v>2.827370805531345</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6774048255738307</v>
+        <v>0.241593337496397</v>
       </c>
       <c r="C7">
-        <v>0.1043285707771986</v>
+        <v>0.04692955282185096</v>
       </c>
       <c r="D7">
-        <v>0.2143024760865018</v>
+        <v>0.2964732635332012</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6205671711855416</v>
+        <v>1.295868881276689</v>
       </c>
       <c r="G7">
-        <v>0.3266645488330582</v>
+        <v>0.6421495803663575</v>
       </c>
       <c r="H7">
-        <v>0.3132122251167146</v>
+        <v>0.7729280945231878</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1791985699074132</v>
+        <v>0.3154057100256082</v>
       </c>
       <c r="K7">
-        <v>0.7036089660628733</v>
+        <v>0.2160979953928859</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.321239842917258</v>
+        <v>0.2288601248553235</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.295233650228639</v>
+        <v>2.8197186565083</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8172164936540867</v>
+        <v>0.284774485755463</v>
       </c>
       <c r="C8">
-        <v>0.1158541309167447</v>
+        <v>0.05095474580920722</v>
       </c>
       <c r="D8">
-        <v>0.2479091025150097</v>
+        <v>0.3037327384858202</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6377339034734604</v>
+        <v>1.28789535762867</v>
       </c>
       <c r="G8">
-        <v>0.3286426063876888</v>
+        <v>0.6354984499891643</v>
       </c>
       <c r="H8">
-        <v>0.3064344425636349</v>
+        <v>0.76494671761359</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1957616254033283</v>
+        <v>0.3168542356635484</v>
       </c>
       <c r="K8">
-        <v>0.8412135177746904</v>
+        <v>0.2599493415768848</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3868611750850235</v>
+        <v>0.2467666209462251</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.285701642297084</v>
+        <v>2.789235249605071</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.09177475023003</v>
+        <v>0.3692934290116909</v>
       </c>
       <c r="C9">
-        <v>0.1385063981117582</v>
+        <v>0.05878618197132823</v>
       </c>
       <c r="D9">
-        <v>0.3154401998883003</v>
+        <v>0.3189525309677208</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.681473253444544</v>
+        <v>1.27756511855285</v>
       </c>
       <c r="G9">
-        <v>0.3393706860120105</v>
+        <v>0.6256311423882366</v>
       </c>
       <c r="H9">
-        <v>0.297349087886829</v>
+        <v>0.7517488909760459</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2308003606887112</v>
+        <v>0.3210006965727459</v>
       </c>
       <c r="K9">
-        <v>1.110879259757837</v>
+        <v>0.3454037864930513</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5169150339156161</v>
+        <v>0.2825110815476179</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.290264821298962</v>
+        <v>2.741258097520131</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.294296414006141</v>
+        <v>0.4312714502480901</v>
       </c>
       <c r="C10">
-        <v>0.155217965433522</v>
+        <v>0.06449949078040618</v>
       </c>
       <c r="D10">
-        <v>0.3662820300364444</v>
+        <v>0.3307286920296093</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7205921341089976</v>
+        <v>1.273206379858159</v>
       </c>
       <c r="G10">
-        <v>0.3520237230770178</v>
+        <v>0.62032076248083</v>
       </c>
       <c r="H10">
-        <v>0.2934965757507797</v>
+        <v>0.7435446351446586</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2583861466698352</v>
+        <v>0.3248426742733272</v>
       </c>
       <c r="K10">
-        <v>1.309409929387471</v>
+        <v>0.4078378036124946</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6136706112136636</v>
+        <v>0.309148280072101</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.309599699602643</v>
+        <v>2.713202991964053</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.386739164433465</v>
+        <v>0.459437145465273</v>
       </c>
       <c r="C11">
-        <v>0.1628447218097762</v>
+        <v>0.06708931097215043</v>
       </c>
       <c r="D11">
-        <v>0.3897329750343772</v>
+        <v>0.3362138741861429</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7401029237973802</v>
+        <v>1.271924343341425</v>
       </c>
       <c r="G11">
-        <v>0.3589561972566457</v>
+        <v>0.618326722494146</v>
       </c>
       <c r="H11">
-        <v>0.2924177945013184</v>
+        <v>0.7401355696988219</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2714027090982398</v>
+        <v>0.3267631752027285</v>
       </c>
       <c r="K11">
-        <v>1.399938952219173</v>
+        <v>0.4361606297782714</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6580368028941024</v>
+        <v>0.3213462402573697</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.322291280599615</v>
+        <v>2.70200208721576</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.421801806904227</v>
+        <v>0.4700981965796132</v>
       </c>
       <c r="C12">
-        <v>0.1657371106103369</v>
+        <v>0.06806863053625989</v>
       </c>
       <c r="D12">
-        <v>0.3986644569874898</v>
+        <v>0.3383092715922942</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7477553924171758</v>
+        <v>1.271539561413007</v>
       </c>
       <c r="G12">
-        <v>0.3617630064559307</v>
+        <v>0.6176323209658676</v>
       </c>
       <c r="H12">
-        <v>0.2921116147071388</v>
+        <v>0.7388910487844527</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2764049055982696</v>
+        <v>0.3275152400289016</v>
       </c>
       <c r="K12">
-        <v>1.434261753092272</v>
+        <v>0.4468739435208988</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6748953317498447</v>
+        <v>0.3259766792292993</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.327695363912824</v>
+        <v>2.69798513721372</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.414247733968551</v>
+        <v>0.4678023664379793</v>
       </c>
       <c r="C13">
-        <v>0.1651139787528422</v>
+        <v>0.06785777939373361</v>
       </c>
       <c r="D13">
-        <v>0.3967385508156838</v>
+        <v>0.3378571797347547</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7460952575977018</v>
+        <v>1.271617953714006</v>
       </c>
       <c r="G13">
-        <v>0.3611502250137448</v>
+        <v>0.6177791722266193</v>
       </c>
       <c r="H13">
-        <v>0.2921729142674963</v>
+        <v>0.7391570148357687</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2753242441696244</v>
+        <v>0.3273521663499395</v>
       </c>
       <c r="K13">
-        <v>1.426867709265309</v>
+        <v>0.4445671797505213</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6712618414872011</v>
+        <v>0.3249789311326268</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.326504270986476</v>
+        <v>2.698840269852042</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.389622587393461</v>
+        <v>0.4603143339112705</v>
       </c>
       <c r="C14">
-        <v>0.1630825895565664</v>
+        <v>0.06716990840590142</v>
       </c>
       <c r="D14">
-        <v>0.390466720892789</v>
+        <v>0.3363858983302919</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7407270987895984</v>
+        <v>1.271890669395688</v>
       </c>
       <c r="G14">
-        <v>0.3591834008321229</v>
+        <v>0.6182683768333561</v>
       </c>
       <c r="H14">
-        <v>0.2923905215728979</v>
+        <v>0.7400322521645109</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2718127426980885</v>
+        <v>0.3268245509206622</v>
       </c>
       <c r="K14">
-        <v>1.402761817779094</v>
+        <v>0.4370422630223061</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6594225569734462</v>
+        <v>0.3217269634906827</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.3227236665833</v>
+        <v>2.701667108947134</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.374546692534608</v>
+        <v>0.4557270696869296</v>
       </c>
       <c r="C15">
-        <v>0.1618388890150726</v>
+        <v>0.06674838466966548</v>
       </c>
       <c r="D15">
-        <v>0.3866318459750744</v>
+        <v>0.3354870718800953</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.737473885341295</v>
+        <v>1.272070827221349</v>
       </c>
       <c r="G15">
-        <v>0.3580027010240912</v>
+        <v>0.6185759352741087</v>
       </c>
       <c r="H15">
-        <v>0.2925373065728394</v>
+        <v>0.740574404074863</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2696715478337381</v>
+        <v>0.326504601676632</v>
       </c>
       <c r="K15">
-        <v>1.388001976586025</v>
+        <v>0.4324314632058588</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6521784386050484</v>
+        <v>0.3197365083269403</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.320486985518755</v>
+        <v>2.703427879081261</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.288262344867945</v>
+        <v>0.4294301326719392</v>
       </c>
       <c r="C16">
-        <v>0.1547200978022687</v>
+        <v>0.06433004920175733</v>
       </c>
       <c r="D16">
-        <v>0.364756345628436</v>
+        <v>0.3303727883569962</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7193530458682744</v>
+        <v>1.273304259119051</v>
       </c>
       <c r="G16">
-        <v>0.3515953906689759</v>
+        <v>0.6204595681907819</v>
       </c>
       <c r="H16">
-        <v>0.2935810918674377</v>
+        <v>0.7437739234236034</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2575453861636987</v>
+        <v>0.3247206388953856</v>
       </c>
       <c r="K16">
-        <v>1.303498863561629</v>
+        <v>0.4059852044071306</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6107788771059646</v>
+        <v>0.3083527145789517</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.30885185089538</v>
+        <v>2.713966422942633</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.235418092440028</v>
+        <v>0.4132901078120312</v>
       </c>
       <c r="C17">
-        <v>0.1503597727203072</v>
+        <v>0.0628440762884992</v>
       </c>
       <c r="D17">
-        <v>0.3514223523326763</v>
+        <v>0.3272680564035539</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7086879498431173</v>
+        <v>1.274240363276192</v>
       </c>
       <c r="G17">
-        <v>0.3479746641316623</v>
+        <v>0.6217231618229988</v>
       </c>
       <c r="H17">
-        <v>0.2943977499705426</v>
+        <v>0.7458194464818746</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2502302043876767</v>
+        <v>0.3236704632755476</v>
       </c>
       <c r="K17">
-        <v>1.251721468968839</v>
+        <v>0.3897406871305691</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5854767861206511</v>
+        <v>0.3013895833259213</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.302738097108076</v>
+        <v>2.720831450803743</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.205052365268244</v>
+        <v>0.4040041533827718</v>
       </c>
       <c r="C18">
-        <v>0.1478540932684638</v>
+        <v>0.06198852270966881</v>
       </c>
       <c r="D18">
-        <v>0.3437830706604785</v>
+        <v>0.3254943674930075</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7027140212974459</v>
+        <v>1.274844750373106</v>
       </c>
       <c r="G18">
-        <v>0.3460020693666976</v>
+        <v>0.6224896342208339</v>
       </c>
       <c r="H18">
-        <v>0.2949305400528459</v>
+        <v>0.7470263906560888</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2460663498189888</v>
+        <v>0.3230826934507007</v>
       </c>
       <c r="K18">
-        <v>1.221960191412137</v>
+        <v>0.3803898969030968</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5709563105964364</v>
+        <v>0.2973921724392028</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.299585940122952</v>
+        <v>2.724927006611068</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.194775681079506</v>
+        <v>0.400859653819623</v>
       </c>
       <c r="C19">
-        <v>0.1470060797356751</v>
+        <v>0.06169870110139186</v>
       </c>
       <c r="D19">
-        <v>0.3412015685966168</v>
+        <v>0.3248959046248814</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7007183776792587</v>
+        <v>1.275060717185042</v>
       </c>
       <c r="G19">
-        <v>0.3453527004417793</v>
+        <v>0.6227559629641846</v>
       </c>
       <c r="H19">
-        <v>0.2951216055971173</v>
+        <v>0.7474402660332231</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.244663863866208</v>
+        <v>0.3228864788751338</v>
       </c>
       <c r="K19">
-        <v>1.211886617680449</v>
+        <v>0.3772226320789969</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5660453102424583</v>
+        <v>0.2960400303542414</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.298580131714417</v>
+        <v>2.726338932793766</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.241040383828704</v>
+        <v>0.41500851849068</v>
       </c>
       <c r="C20">
-        <v>0.1508236970646522</v>
+        <v>0.0630023502676238</v>
       </c>
       <c r="D20">
-        <v>0.3528386325138939</v>
+        <v>0.3275973122214992</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7098065485221809</v>
+        <v>1.274133886814028</v>
       </c>
       <c r="G20">
-        <v>0.3483486294535965</v>
+        <v>0.6215845422457136</v>
       </c>
       <c r="H20">
-        <v>0.2943042494713595</v>
+        <v>0.7455985496906621</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2510043597114446</v>
+        <v>0.3237805732825478</v>
       </c>
       <c r="K20">
-        <v>1.257231148814128</v>
+        <v>0.3914707112549536</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.588166808656176</v>
+        <v>0.3021300359696681</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.303350945429401</v>
+        <v>2.72008544532946</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.39685395996878</v>
+        <v>0.4625138825385022</v>
       </c>
       <c r="C21">
-        <v>0.1636791346464292</v>
+        <v>0.06737199102366276</v>
       </c>
       <c r="D21">
-        <v>0.3923074830049984</v>
+        <v>0.336817554476653</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7422965431505162</v>
+        <v>1.271807833876544</v>
       </c>
       <c r="G21">
-        <v>0.3597560721798203</v>
+        <v>0.6181230377675604</v>
       </c>
       <c r="H21">
-        <v>0.292323782622276</v>
+        <v>0.7397739143021482</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2728421230743692</v>
+        <v>0.3269788511960172</v>
       </c>
       <c r="K21">
-        <v>1.409841092316583</v>
+        <v>0.4392528419540724</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6628984053518892</v>
+        <v>0.3226818395396549</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.323817577217369</v>
+        <v>2.700830702116491</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.499022775090822</v>
+        <v>0.4935337908244151</v>
       </c>
       <c r="C22">
-        <v>0.172106379539116</v>
+        <v>0.07021967599706613</v>
       </c>
       <c r="D22">
-        <v>0.4184030212778964</v>
+        <v>0.3429499842716837</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7650792694322064</v>
+        <v>1.270874531168161</v>
       </c>
       <c r="G22">
-        <v>0.3682765448354957</v>
+        <v>0.616214567529525</v>
       </c>
       <c r="H22">
-        <v>0.2916286847106591</v>
+        <v>0.7362377197268017</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2875434900934266</v>
+        <v>0.3292137241887332</v>
       </c>
       <c r="K22">
-        <v>1.50982730035264</v>
+        <v>0.4704114338692875</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7120818130193527</v>
+        <v>0.3361795915948562</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.340698967830775</v>
+        <v>2.689555714973181</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.444458686476082</v>
+        <v>0.476980604646684</v>
       </c>
       <c r="C23">
-        <v>0.1676060002238415</v>
+        <v>0.06870057874488111</v>
       </c>
       <c r="D23">
-        <v>0.4044462219221714</v>
+        <v>0.3396672986446561</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7527719267465898</v>
+        <v>1.271318974744972</v>
       </c>
       <c r="G23">
-        <v>0.3636272324567926</v>
+        <v>0.6172007591519417</v>
       </c>
       <c r="H23">
-        <v>0.2919429465979562</v>
+        <v>0.7381003125924082</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2796557899141447</v>
+        <v>0.3280077085179727</v>
       </c>
       <c r="K23">
-        <v>1.456436594324344</v>
+        <v>0.4537880926557989</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.68579781204879</v>
+        <v>0.3289696341895194</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.331355183151345</v>
+        <v>2.695453589764497</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.238498499589383</v>
+        <v>0.4142316462805695</v>
       </c>
       <c r="C24">
-        <v>0.1506139534077988</v>
+        <v>0.06293079848408922</v>
       </c>
       <c r="D24">
-        <v>0.3521982497165368</v>
+        <v>0.3274484205734325</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7093003405504135</v>
+        <v>1.274181818583074</v>
       </c>
       <c r="G24">
-        <v>0.3481792211243047</v>
+        <v>0.6216470875155196</v>
       </c>
       <c r="H24">
-        <v>0.2943463243441755</v>
+        <v>0.7456983207322452</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2506542345144851</v>
+        <v>0.3237307427389879</v>
       </c>
       <c r="K24">
-        <v>1.254740203901179</v>
+        <v>0.3906886034384627</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5869505689365937</v>
+        <v>0.3017952592886317</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.303072749737794</v>
+        <v>2.720422251030499</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.017401605759858</v>
+        <v>0.3464480333491906</v>
       </c>
       <c r="C25">
-        <v>0.132369177725792</v>
+        <v>0.05667448216657078</v>
       </c>
       <c r="D25">
-        <v>0.2969735675751792</v>
+        <v>0.3147304185840341</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6684780260905896</v>
+        <v>1.279792075684917</v>
       </c>
       <c r="G25">
-        <v>0.3356757908935464</v>
+        <v>0.627960210070249</v>
       </c>
       <c r="H25">
-        <v>0.2993308840601543</v>
+        <v>0.7550569492478161</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2210193333828983</v>
+        <v>0.3197392177416631</v>
       </c>
       <c r="K25">
-        <v>1.037895371876147</v>
+        <v>0.3223459063559915</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4815485209073813</v>
+        <v>0.2727746779665807</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.286360680744465</v>
+        <v>2.752973870889477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_75/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_75/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2964644314608904</v>
+        <v>0.8551049485604949</v>
       </c>
       <c r="C2">
-        <v>0.05204127957692606</v>
+        <v>0.118979097694222</v>
       </c>
       <c r="D2">
-        <v>0.3057664949759413</v>
+        <v>0.2571168191299904</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.286094136379496</v>
+        <v>0.6430375233057148</v>
       </c>
       <c r="G2">
-        <v>0.6339111078817652</v>
+        <v>0.3296211473712631</v>
       </c>
       <c r="H2">
-        <v>0.7629503473669246</v>
+        <v>0.3048735622496324</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3173351099104806</v>
+        <v>0.2004126146062006</v>
       </c>
       <c r="K2">
-        <v>0.2717952620865276</v>
+        <v>0.8784676340200122</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2516613191299228</v>
+        <v>0.4047211055190232</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.781774390993235</v>
+        <v>1.28462935776615</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2625494012835929</v>
+        <v>0.7452344317447057</v>
       </c>
       <c r="C3">
-        <v>0.04888545475904493</v>
+        <v>0.1099188380029972</v>
       </c>
       <c r="D3">
-        <v>0.2999429382849428</v>
+        <v>0.230529781225087</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.291720718292183</v>
+        <v>0.6283982348207076</v>
       </c>
       <c r="G3">
-        <v>0.6387555901064914</v>
+        <v>0.3272872234243707</v>
       </c>
       <c r="H3">
-        <v>0.7689265224063533</v>
+        <v>0.309712812545385</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3160395519624686</v>
+        <v>0.1871104139458026</v>
       </c>
       <c r="K3">
-        <v>0.2373991465323257</v>
+        <v>0.7703954093166061</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2375135800254284</v>
+        <v>0.3530175742886001</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.804307867632033</v>
+        <v>1.28945642374029</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2417079151751977</v>
+        <v>0.677775621346143</v>
       </c>
       <c r="C4">
-        <v>0.04694026051144817</v>
+        <v>0.1043591218623448</v>
       </c>
       <c r="D4">
-        <v>0.2964919325168012</v>
+        <v>0.2143907589358776</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.295844628252006</v>
+        <v>0.6206072451801461</v>
       </c>
       <c r="G4">
-        <v>0.6421300859656895</v>
+        <v>0.3266661056051205</v>
       </c>
       <c r="H4">
-        <v>0.7729054917629057</v>
+        <v>0.3131919299747139</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.31540878542706</v>
+        <v>0.1792411424779701</v>
       </c>
       <c r="K4">
-        <v>0.2162145717714168</v>
+        <v>0.7039742109203644</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2289072308901936</v>
+        <v>0.3214132382199466</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.819630914032317</v>
+        <v>1.295195733929958</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2332109866188148</v>
+        <v>0.6502786782347698</v>
       </c>
       <c r="C5">
-        <v>0.04614575421661016</v>
+        <v>0.1020938506382976</v>
       </c>
       <c r="D5">
-        <v>0.295117115070255</v>
+        <v>0.2078573973568894</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.29769352697334</v>
+        <v>0.6177214319621029</v>
       </c>
       <c r="G5">
-        <v>0.6436057574119971</v>
+        <v>0.3266085665017897</v>
       </c>
       <c r="H5">
-        <v>0.7746048606151845</v>
+        <v>0.3147336528107658</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3151931961716485</v>
+        <v>0.1761053648633464</v>
       </c>
       <c r="K5">
-        <v>0.2075658426622766</v>
+        <v>0.6768841476699095</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2254205263047027</v>
+        <v>0.3085648661766243</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.826249243200451</v>
+        <v>1.298206411313998</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.231799861621937</v>
+        <v>0.645712203238304</v>
       </c>
       <c r="C6">
-        <v>0.04601371876749027</v>
+        <v>0.1017177124478152</v>
       </c>
       <c r="D6">
-        <v>0.2948907341396421</v>
+        <v>0.2067750686167216</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.298010707525059</v>
+        <v>0.6172593616935771</v>
       </c>
       <c r="G6">
-        <v>0.6438568626223216</v>
+        <v>0.3266105800337797</v>
       </c>
       <c r="H6">
-        <v>0.7748917466975982</v>
+        <v>0.3149970351309577</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3151599024507519</v>
+        <v>0.1755888468935822</v>
       </c>
       <c r="K6">
-        <v>0.2061287873534354</v>
+        <v>0.6723842934295163</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.224842803733722</v>
+        <v>0.3064331133713267</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.827370805531345</v>
+        <v>1.298746170542458</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.241593337496397</v>
+        <v>0.6774048255738023</v>
       </c>
       <c r="C7">
-        <v>0.04692955282185096</v>
+        <v>0.1043285707769712</v>
       </c>
       <c r="D7">
-        <v>0.2964732635332012</v>
+        <v>0.2143024760866439</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.295868881276689</v>
+        <v>0.6205671711855487</v>
       </c>
       <c r="G7">
-        <v>0.6421495803663575</v>
+        <v>0.3266645488331079</v>
       </c>
       <c r="H7">
-        <v>0.7729280945231878</v>
+        <v>0.3132122251167146</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3154057100256082</v>
+        <v>0.1791985699074345</v>
       </c>
       <c r="K7">
-        <v>0.2160979953928859</v>
+        <v>0.7036089660629159</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2288601248553235</v>
+        <v>0.321239842917258</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.8197186565083</v>
+        <v>1.295233650228624</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.284774485755463</v>
+        <v>0.8172164936540867</v>
       </c>
       <c r="C8">
-        <v>0.05095474580920722</v>
+        <v>0.1158541309166878</v>
       </c>
       <c r="D8">
-        <v>0.3037327384858202</v>
+        <v>0.247909102515095</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.28789535762867</v>
+        <v>0.6377339034734675</v>
       </c>
       <c r="G8">
-        <v>0.6354984499891643</v>
+        <v>0.3286426063876817</v>
       </c>
       <c r="H8">
-        <v>0.76494671761359</v>
+        <v>0.3064344425636421</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3168542356635484</v>
+        <v>0.1957616254032999</v>
       </c>
       <c r="K8">
-        <v>0.2599493415768848</v>
+        <v>0.841213517774662</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2467666209462251</v>
+        <v>0.3868611750850306</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.789235249605071</v>
+        <v>1.28570164229707</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3692934290116909</v>
+        <v>1.091774750229888</v>
       </c>
       <c r="C9">
-        <v>0.05878618197132823</v>
+        <v>0.1385063981117582</v>
       </c>
       <c r="D9">
-        <v>0.3189525309677208</v>
+        <v>0.3154401998882861</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.27756511855285</v>
+        <v>0.681473253444544</v>
       </c>
       <c r="G9">
-        <v>0.6256311423882366</v>
+        <v>0.3393706860120673</v>
       </c>
       <c r="H9">
-        <v>0.7517488909760459</v>
+        <v>0.297349087886829</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3210006965727459</v>
+        <v>0.230800360688626</v>
       </c>
       <c r="K9">
-        <v>0.3454037864930513</v>
+        <v>1.110879259757979</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2825110815476179</v>
+        <v>0.5169150339156161</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.741258097520131</v>
+        <v>1.290264821298962</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4312714502480901</v>
+        <v>1.294296414006226</v>
       </c>
       <c r="C10">
-        <v>0.06449949078040618</v>
+        <v>0.1552179654335362</v>
       </c>
       <c r="D10">
-        <v>0.3307286920296093</v>
+        <v>0.3662820300363734</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.273206379858159</v>
+        <v>0.7205921341089692</v>
       </c>
       <c r="G10">
-        <v>0.62032076248083</v>
+        <v>0.3520237230770817</v>
       </c>
       <c r="H10">
-        <v>0.7435446351446586</v>
+        <v>0.293496575750666</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3248426742733272</v>
+        <v>0.2583861466697925</v>
       </c>
       <c r="K10">
-        <v>0.4078378036124946</v>
+        <v>1.309409929387499</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.309148280072101</v>
+        <v>0.6136706112136707</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.713202991964053</v>
+        <v>1.309599699602614</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.459437145465273</v>
+        <v>1.386739164433322</v>
       </c>
       <c r="C11">
-        <v>0.06708931097215043</v>
+        <v>0.1628447218093925</v>
       </c>
       <c r="D11">
-        <v>0.3362138741861429</v>
+        <v>0.3897329750342635</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.271924343341425</v>
+        <v>0.7401029237973873</v>
       </c>
       <c r="G11">
-        <v>0.618326722494146</v>
+        <v>0.3589561972567168</v>
       </c>
       <c r="H11">
-        <v>0.7401355696988219</v>
+        <v>0.2924177945013184</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3267631752027285</v>
+        <v>0.2714027090981403</v>
       </c>
       <c r="K11">
-        <v>0.4361606297782714</v>
+        <v>1.399938952219031</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3213462402573697</v>
+        <v>0.6580368028940953</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.70200208721576</v>
+        <v>1.322291280599586</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4700981965796132</v>
+        <v>1.421801806904227</v>
       </c>
       <c r="C12">
-        <v>0.06806863053625989</v>
+        <v>0.165737110610138</v>
       </c>
       <c r="D12">
-        <v>0.3383092715922942</v>
+        <v>0.3986644569872908</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.271539561413007</v>
+        <v>0.7477553924171758</v>
       </c>
       <c r="G12">
-        <v>0.6176323209658676</v>
+        <v>0.361763006455817</v>
       </c>
       <c r="H12">
-        <v>0.7388910487844527</v>
+        <v>0.2921116147071388</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3275152400289016</v>
+        <v>0.2764049055983264</v>
       </c>
       <c r="K12">
-        <v>0.4468739435208988</v>
+        <v>1.434261753092358</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3259766792292993</v>
+        <v>0.6748953317498518</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.69798513721372</v>
+        <v>1.327695363912881</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4678023664379793</v>
+        <v>1.414247733968324</v>
       </c>
       <c r="C13">
-        <v>0.06785777939373361</v>
+        <v>0.1651139787525295</v>
       </c>
       <c r="D13">
-        <v>0.3378571797347547</v>
+        <v>0.3967385508158259</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.271617953714006</v>
+        <v>0.7460952575977231</v>
       </c>
       <c r="G13">
-        <v>0.6177791722266193</v>
+        <v>0.3611502250137448</v>
       </c>
       <c r="H13">
-        <v>0.7391570148357687</v>
+        <v>0.2921729142673826</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3273521663499395</v>
+        <v>0.2753242441697097</v>
       </c>
       <c r="K13">
-        <v>0.4445671797505213</v>
+        <v>1.426867709265395</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3249789311326268</v>
+        <v>0.6712618414872082</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.698840269852042</v>
+        <v>1.326504270986561</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4603143339112705</v>
+        <v>1.389622587393546</v>
       </c>
       <c r="C14">
-        <v>0.06716990840590142</v>
+        <v>0.1630825895565522</v>
       </c>
       <c r="D14">
-        <v>0.3363858983302919</v>
+        <v>0.3904667208929027</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.271890669395688</v>
+        <v>0.7407270987896126</v>
       </c>
       <c r="G14">
-        <v>0.6182683768333561</v>
+        <v>0.3591834008320518</v>
       </c>
       <c r="H14">
-        <v>0.7400322521645109</v>
+        <v>0.2923905215730116</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3268245509206622</v>
+        <v>0.2718127426982022</v>
       </c>
       <c r="K14">
-        <v>0.4370422630223061</v>
+        <v>1.40276181777898</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3217269634906827</v>
+        <v>0.6594225569734533</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.701667108947134</v>
+        <v>1.3227236665833</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4557270696869296</v>
+        <v>1.374546692534722</v>
       </c>
       <c r="C15">
-        <v>0.06674838466966548</v>
+        <v>0.1618388890152289</v>
       </c>
       <c r="D15">
-        <v>0.3354870718800953</v>
+        <v>0.3866318459749323</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.272070827221349</v>
+        <v>0.7374738853412879</v>
       </c>
       <c r="G15">
-        <v>0.6185759352741087</v>
+        <v>0.358002701024148</v>
       </c>
       <c r="H15">
-        <v>0.740574404074863</v>
+        <v>0.2925373065727257</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.326504601676632</v>
+        <v>0.2696715478338234</v>
       </c>
       <c r="K15">
-        <v>0.4324314632058588</v>
+        <v>1.388001976585912</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3197365083269403</v>
+        <v>0.6521784386050413</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.703427879081261</v>
+        <v>1.320486985518727</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4294301326719392</v>
+        <v>1.288262344868087</v>
       </c>
       <c r="C16">
-        <v>0.06433004920175733</v>
+        <v>0.1547200978026524</v>
       </c>
       <c r="D16">
-        <v>0.3303727883569962</v>
+        <v>0.3647563456281375</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.273304259119051</v>
+        <v>0.7193530458682531</v>
       </c>
       <c r="G16">
-        <v>0.6204595681907819</v>
+        <v>0.3515953906690399</v>
       </c>
       <c r="H16">
-        <v>0.7437739234236034</v>
+        <v>0.2935810918674306</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3247206388953856</v>
+        <v>0.2575453861636703</v>
       </c>
       <c r="K16">
-        <v>0.4059852044071306</v>
+        <v>1.303498863561742</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3083527145789517</v>
+        <v>0.6107788771059788</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.713966422942633</v>
+        <v>1.308851850895437</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4132901078120312</v>
+        <v>1.235418092440057</v>
       </c>
       <c r="C17">
-        <v>0.0628440762884992</v>
+        <v>0.1503597727201367</v>
       </c>
       <c r="D17">
-        <v>0.3272680564035539</v>
+        <v>0.3514223523327615</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.274240363276192</v>
+        <v>0.7086879498431173</v>
       </c>
       <c r="G17">
-        <v>0.6217231618229988</v>
+        <v>0.3479746641316623</v>
       </c>
       <c r="H17">
-        <v>0.7458194464818746</v>
+        <v>0.2943977499705426</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3236704632755476</v>
+        <v>0.2502302043877478</v>
       </c>
       <c r="K17">
-        <v>0.3897406871305691</v>
+        <v>1.251721468968839</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3013895833259213</v>
+        <v>0.5854767861206582</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.720831450803743</v>
+        <v>1.302738097108076</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4040041533827718</v>
+        <v>1.205052365268244</v>
       </c>
       <c r="C18">
-        <v>0.06198852270966881</v>
+        <v>0.147854093268208</v>
       </c>
       <c r="D18">
-        <v>0.3254943674930075</v>
+        <v>0.3437830706602938</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.274844750373106</v>
+        <v>0.7027140212974459</v>
       </c>
       <c r="G18">
-        <v>0.6224896342208339</v>
+        <v>0.346002069366719</v>
       </c>
       <c r="H18">
-        <v>0.7470263906560888</v>
+        <v>0.2949305400528459</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3230826934507007</v>
+        <v>0.2460663498190314</v>
       </c>
       <c r="K18">
-        <v>0.3803898969030968</v>
+        <v>1.22196019141208</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2973921724392028</v>
+        <v>0.5709563105964293</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.724927006611068</v>
+        <v>1.299585940122952</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.400859653819623</v>
+        <v>1.194775681079562</v>
       </c>
       <c r="C19">
-        <v>0.06169870110139186</v>
+        <v>0.1470060797357746</v>
       </c>
       <c r="D19">
-        <v>0.3248959046248814</v>
+        <v>0.341201568596361</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.275060717185042</v>
+        <v>0.7007183776792303</v>
       </c>
       <c r="G19">
-        <v>0.6227559629641846</v>
+        <v>0.3453527004417225</v>
       </c>
       <c r="H19">
-        <v>0.7474402660332231</v>
+        <v>0.2951216055971173</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3228864788751338</v>
+        <v>0.2446638638661511</v>
       </c>
       <c r="K19">
-        <v>0.3772226320789969</v>
+        <v>1.211886617680477</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2960400303542414</v>
+        <v>0.5660453102424654</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.726338932793766</v>
+        <v>1.298580131714374</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.41500851849068</v>
+        <v>1.241040383828562</v>
       </c>
       <c r="C20">
-        <v>0.0630023502676238</v>
+        <v>0.1508236970649079</v>
       </c>
       <c r="D20">
-        <v>0.3275973122214992</v>
+        <v>0.3528386325141355</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.274133886814028</v>
+        <v>0.7098065485221952</v>
       </c>
       <c r="G20">
-        <v>0.6215845422457136</v>
+        <v>0.3483486294535467</v>
       </c>
       <c r="H20">
-        <v>0.7455985496906621</v>
+        <v>0.2943042494712458</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3237805732825478</v>
+        <v>0.2510043597114162</v>
       </c>
       <c r="K20">
-        <v>0.3914707112549536</v>
+        <v>1.2572311488141</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3021300359696681</v>
+        <v>0.5881668086561689</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.72008544532946</v>
+        <v>1.303350945429344</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4625138825385022</v>
+        <v>1.396853959969008</v>
       </c>
       <c r="C21">
-        <v>0.06737199102366276</v>
+        <v>0.1636791346464435</v>
       </c>
       <c r="D21">
-        <v>0.336817554476653</v>
+        <v>0.3923074830051405</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.271807833876544</v>
+        <v>0.7422965431505375</v>
       </c>
       <c r="G21">
-        <v>0.6181230377675604</v>
+        <v>0.3597560721796924</v>
       </c>
       <c r="H21">
-        <v>0.7397739143021482</v>
+        <v>0.2923237826223897</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3269788511960172</v>
+        <v>0.272842123074426</v>
       </c>
       <c r="K21">
-        <v>0.4392528419540724</v>
+        <v>1.409841092316611</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3226818395396549</v>
+        <v>0.6628984053518749</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.700830702116491</v>
+        <v>1.323817577217341</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4935337908244151</v>
+        <v>1.499022775090651</v>
       </c>
       <c r="C22">
-        <v>0.07021967599706613</v>
+        <v>0.1721063795391018</v>
       </c>
       <c r="D22">
-        <v>0.3429499842716837</v>
+        <v>0.4184030212779817</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.270874531168161</v>
+        <v>0.7650792694322064</v>
       </c>
       <c r="G22">
-        <v>0.616214567529525</v>
+        <v>0.368276544835382</v>
       </c>
       <c r="H22">
-        <v>0.7362377197268017</v>
+        <v>0.2916286847106591</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3292137241887332</v>
+        <v>0.2875434900934124</v>
       </c>
       <c r="K22">
-        <v>0.4704114338692875</v>
+        <v>1.509827300352526</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3361795915948562</v>
+        <v>0.7120818130193385</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.689555714973181</v>
+        <v>1.340698967830804</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.476980604646684</v>
+        <v>1.444458686476054</v>
       </c>
       <c r="C23">
-        <v>0.06870057874488111</v>
+        <v>0.1676060002237136</v>
       </c>
       <c r="D23">
-        <v>0.3396672986446561</v>
+        <v>0.4044462219221998</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.271318974744972</v>
+        <v>0.7527719267465898</v>
       </c>
       <c r="G23">
-        <v>0.6172007591519417</v>
+        <v>0.3636272324567926</v>
       </c>
       <c r="H23">
-        <v>0.7381003125924082</v>
+        <v>0.291942946597942</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3280077085179727</v>
+        <v>0.2796557899142016</v>
       </c>
       <c r="K23">
-        <v>0.4537880926557989</v>
+        <v>1.456436594324316</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3289696341895194</v>
+        <v>0.68579781204879</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.695453589764497</v>
+        <v>1.331355183151288</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4142316462805695</v>
+        <v>1.238498499589298</v>
       </c>
       <c r="C24">
-        <v>0.06293079848408922</v>
+        <v>0.150613953407813</v>
       </c>
       <c r="D24">
-        <v>0.3274484205734325</v>
+        <v>0.3521982497164231</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.274181818583074</v>
+        <v>0.7093003405504135</v>
       </c>
       <c r="G24">
-        <v>0.6216470875155196</v>
+        <v>0.3481792211243118</v>
       </c>
       <c r="H24">
-        <v>0.7456983207322452</v>
+        <v>0.2943463243440618</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3237307427389879</v>
+        <v>0.2506542345144851</v>
       </c>
       <c r="K24">
-        <v>0.3906886034384627</v>
+        <v>1.254740203901122</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3017952592886317</v>
+        <v>0.5869505689365795</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.720422251030499</v>
+        <v>1.303072749737751</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3464480333491906</v>
+        <v>1.017401605759972</v>
       </c>
       <c r="C25">
-        <v>0.05667448216657078</v>
+        <v>0.1323691777260336</v>
       </c>
       <c r="D25">
-        <v>0.3147304185840341</v>
+        <v>0.2969735675752219</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.279792075684917</v>
+        <v>0.6684780260905825</v>
       </c>
       <c r="G25">
-        <v>0.627960210070249</v>
+        <v>0.3356757908935464</v>
       </c>
       <c r="H25">
-        <v>0.7550569492478161</v>
+        <v>0.2993308840601543</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3197392177416631</v>
+        <v>0.2210193333829338</v>
       </c>
       <c r="K25">
-        <v>0.3223459063559915</v>
+        <v>1.037895371876289</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2727746779665807</v>
+        <v>0.4815485209073742</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.752973870889477</v>
+        <v>1.286360680744579</v>
       </c>
     </row>
   </sheetData>
